--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexandra.veizu\Documents\Reframework_update_UiPath_Services\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gglag\Documents\UiPath\UiPath_Calculate_Client_Security_Hash\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE7DFF5-5AFC-4110-8461-609B0BDD5551}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F392E378-C035-4AC9-92D9-5B0316B0EC87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32280" yWindow="3165" windowWidth="18765" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>Name</t>
   </si>
@@ -123,6 +123,24 @@
   <si>
     <t>OrchestratorAssetFolder</t>
   </si>
+  <si>
+    <t>System1 URL</t>
+  </si>
+  <si>
+    <t>SHA1 Online URL</t>
+  </si>
+  <si>
+    <t>System1_Credential</t>
+  </si>
+  <si>
+    <t>SecurityHashCredentials</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/login</t>
+  </si>
+  <si>
+    <t>http://www.sha1-online.com/</t>
+  </si>
 </sst>
 </file>
 
@@ -185,7 +203,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -201,9 +219,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -241,7 +259,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -347,7 +365,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -499,8 +517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -569,10 +587,31 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+    </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+    </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1572,7 +1611,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z987"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -1621,7 +1662,7 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>26</v>
@@ -2682,8 +2723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="A2:C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gglag\Documents\UiPath\UiPath_Calculate_Client_Security_Hash\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F392E378-C035-4AC9-92D9-5B0316B0EC87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CBBCC06-1732-4ECF-B587-581BE69F848F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32280" yWindow="3165" windowWidth="18765" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="4365" windowWidth="20895" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -136,17 +136,17 @@
     <t>SecurityHashCredentials</t>
   </si>
   <si>
-    <t>https://acme-test.uipath.com/login</t>
+    <t>http://www.sha1-online.com/</t>
   </si>
   <si>
-    <t>http://www.sha1-online.com/</t>
+    <t>https://acme-test.uipath.com/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -157,6 +157,8 @@
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="6"/>
@@ -169,6 +171,13 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -191,7 +200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -201,6 +210,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -518,7 +529,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -588,19 +599,19 @@
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A6" t="s">
+      <c r="A6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B6" t="s">
-        <v>36</v>
+      <c r="B6" s="6" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A7" t="s">
+      <c r="A7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B7" t="s">
-        <v>37</v>
+      <c r="B7" s="6" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
